--- a/doc/04_DB定義書_CurrentDirectory.xlsx
+++ b/doc/04_DB定義書_CurrentDirectory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{33E58FFF-9332-414D-8477-12510D7EA023}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACBDED9-8EAC-4AF4-96FB-F77700F54BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1155" windowWidth="15375" windowHeight="9165" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1465,8 +1465,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F4" sqref="F4"/>
+    <sheetView topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1880,8 +1880,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1986,10 +1986,7 @@
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="5" t="e">
-        <f>"create table "&amp;#REF!&amp;" ("</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
@@ -2016,10 +2013,6 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
@@ -2044,10 +2037,6 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
@@ -2072,10 +2061,6 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
@@ -2100,10 +2085,6 @@
         <v>0</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
@@ -2128,10 +2109,6 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
@@ -2158,10 +2135,6 @@
       <c r="K15" s="3" t="s">
         <v>54</v>
       </c>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
@@ -2186,12 +2159,8 @@
         <v>0</v>
       </c>
       <c r="K16" s="3"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>8</v>
       </c>
@@ -2212,12 +2181,8 @@
       </c>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>9</v>
       </c>
@@ -2230,12 +2195,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>10</v>
       </c>
@@ -2248,12 +2209,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>11</v>
       </c>
@@ -2266,12 +2223,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>12</v>
       </c>
@@ -2284,12 +2237,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>13</v>
       </c>
@@ -2302,12 +2251,8 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>14</v>
       </c>
@@ -2320,12 +2265,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>15</v>
       </c>
@@ -2338,12 +2279,8 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>16</v>
       </c>
@@ -2356,12 +2293,8 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>17</v>
       </c>
@@ -2374,12 +2307,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>18</v>
       </c>
@@ -2392,12 +2321,8 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>19</v>
       </c>
@@ -2410,12 +2335,8 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>20</v>
       </c>
@@ -2428,10 +2349,6 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2444,8 +2361,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8DFD4F-0257-4E06-B0A5-56D1EC4D3B9A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="C7" workbookViewId="0">
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2549,10 +2466,7 @@
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="5" t="e">
-        <f>"create table "&amp;#REF!&amp;" ("</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
@@ -2581,10 +2495,6 @@
         <v>0</v>
       </c>
       <c r="K10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
@@ -2609,10 +2519,6 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
@@ -2637,10 +2543,6 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
@@ -2665,10 +2567,6 @@
       </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
@@ -2683,10 +2581,6 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
@@ -2701,10 +2595,6 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
@@ -2719,12 +2609,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>8</v>
       </c>
@@ -2737,12 +2623,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>9</v>
       </c>
@@ -2755,12 +2637,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>10</v>
       </c>
@@ -2773,12 +2651,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>11</v>
       </c>
@@ -2791,12 +2665,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>12</v>
       </c>
@@ -2809,12 +2679,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>13</v>
       </c>
@@ -2827,12 +2693,8 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>14</v>
       </c>
@@ -2845,12 +2707,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>15</v>
       </c>
@@ -2863,12 +2721,8 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>16</v>
       </c>
@@ -2881,12 +2735,8 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>17</v>
       </c>
@@ -2899,12 +2749,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>18</v>
       </c>
@@ -2917,12 +2763,8 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>19</v>
       </c>
@@ -2935,12 +2777,8 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>20</v>
       </c>
@@ -2953,10 +2791,6 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -2969,8 +2803,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABC84B5-3E2A-44BF-AB4E-FE9C5D3AB4FC}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+    <sheetView topLeftCell="E25" workbookViewId="0">
+      <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3074,10 +2908,7 @@
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="5" t="e">
-        <f>"create table "&amp;#REF!&amp;" ("</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
@@ -3104,10 +2935,6 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
@@ -3132,10 +2959,6 @@
         <v>0</v>
       </c>
       <c r="K11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
@@ -3160,10 +2983,6 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
@@ -3178,10 +2997,6 @@
       <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
@@ -3196,10 +3011,6 @@
       <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
@@ -3214,10 +3025,6 @@
       <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
@@ -3232,12 +3039,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>8</v>
       </c>
@@ -3250,12 +3053,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>9</v>
       </c>
@@ -3268,12 +3067,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>10</v>
       </c>
@@ -3286,12 +3081,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>11</v>
       </c>
@@ -3304,12 +3095,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>12</v>
       </c>
@@ -3322,12 +3109,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>13</v>
       </c>
@@ -3340,12 +3123,8 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>14</v>
       </c>
@@ -3358,12 +3137,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>15</v>
       </c>
@@ -3376,12 +3151,8 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>16</v>
       </c>
@@ -3394,12 +3165,8 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>17</v>
       </c>
@@ -3412,12 +3179,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>18</v>
       </c>
@@ -3430,12 +3193,8 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>19</v>
       </c>
@@ -3448,12 +3207,8 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>20</v>
       </c>
@@ -3466,10 +3221,6 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -3482,8 +3233,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0F3DB-914B-4F29-87A6-AF8DC21C9979}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView topLeftCell="F16" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3588,10 +3339,7 @@
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="5" t="e">
-        <f>"create table "&amp;#REF!&amp;" ("</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
@@ -3618,10 +3366,6 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
@@ -3644,10 +3388,6 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
@@ -3672,10 +3412,6 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
@@ -3702,10 +3438,6 @@
         <v>70</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
@@ -3730,10 +3462,6 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
@@ -3758,10 +3486,6 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
@@ -3776,12 +3500,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>8</v>
       </c>
@@ -3794,12 +3514,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>9</v>
       </c>
@@ -3812,12 +3528,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>10</v>
       </c>
@@ -3830,12 +3542,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>11</v>
       </c>
@@ -3848,12 +3556,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>12</v>
       </c>
@@ -3866,12 +3570,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>13</v>
       </c>
@@ -3884,12 +3584,8 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>14</v>
       </c>
@@ -3902,12 +3598,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>15</v>
       </c>
@@ -3920,12 +3612,8 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>16</v>
       </c>
@@ -3938,12 +3626,8 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>17</v>
       </c>
@@ -3956,12 +3640,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>18</v>
       </c>
@@ -3974,12 +3654,8 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>19</v>
       </c>
@@ -3992,12 +3668,8 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>20</v>
       </c>
@@ -4010,10 +3682,6 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -4026,8 +3694,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E127DE-CF36-43F6-B7A4-D647F3EAF3DF}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4132,10 +3800,7 @@
       <c r="K9" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="L9" s="5" t="e">
-        <f>"create table "&amp;#REF!&amp;" ("</f>
-        <v>#REF!</v>
-      </c>
+      <c r="L9" s="5"/>
     </row>
     <row r="10" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B10" s="3">
@@ -4162,10 +3827,6 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3"/>
-      <c r="L10" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
@@ -4188,10 +3849,6 @@
       </c>
       <c r="J11" s="3"/>
       <c r="K11" s="3"/>
-      <c r="L11" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
@@ -4216,10 +3873,6 @@
       </c>
       <c r="J12" s="3"/>
       <c r="K12" s="3"/>
-      <c r="L12" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
@@ -4246,10 +3899,6 @@
         <v>70</v>
       </c>
       <c r="K13" s="3"/>
-      <c r="L13" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
@@ -4272,10 +3921,6 @@
       </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
-      <c r="L14" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B15" s="3">
@@ -4300,10 +3945,6 @@
       </c>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
-      <c r="L15" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B16" s="3">
@@ -4318,12 +3959,8 @@
       <c r="I16" s="3"/>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
-      <c r="L16" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="17" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B17" s="3">
         <v>8</v>
       </c>
@@ -4336,12 +3973,8 @@
       <c r="I17" s="3"/>
       <c r="J17" s="3"/>
       <c r="K17" s="3"/>
-      <c r="L17" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="18" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B18" s="3">
         <v>9</v>
       </c>
@@ -4354,12 +3987,8 @@
       <c r="I18" s="3"/>
       <c r="J18" s="3"/>
       <c r="K18" s="3"/>
-      <c r="L18" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="19" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
         <v>10</v>
       </c>
@@ -4372,12 +4001,8 @@
       <c r="I19" s="3"/>
       <c r="J19" s="3"/>
       <c r="K19" s="3"/>
-      <c r="L19" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="20" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B20" s="3">
         <v>11</v>
       </c>
@@ -4390,12 +4015,8 @@
       <c r="I20" s="3"/>
       <c r="J20" s="3"/>
       <c r="K20" s="3"/>
-      <c r="L20" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="21" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B21" s="3">
         <v>12</v>
       </c>
@@ -4408,12 +4029,8 @@
       <c r="I21" s="3"/>
       <c r="J21" s="3"/>
       <c r="K21" s="3"/>
-      <c r="L21" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="22" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B22" s="3">
         <v>13</v>
       </c>
@@ -4426,12 +4043,8 @@
       <c r="I22" s="3"/>
       <c r="J22" s="3"/>
       <c r="K22" s="3"/>
-      <c r="L22" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="23" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B23" s="3">
         <v>14</v>
       </c>
@@ -4444,12 +4057,8 @@
       <c r="I23" s="3"/>
       <c r="J23" s="3"/>
       <c r="K23" s="3"/>
-      <c r="L23" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="24" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B24" s="3">
         <v>15</v>
       </c>
@@ -4462,12 +4071,8 @@
       <c r="I24" s="3"/>
       <c r="J24" s="3"/>
       <c r="K24" s="3"/>
-      <c r="L24" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="25" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B25" s="3">
         <v>16</v>
       </c>
@@ -4480,12 +4085,8 @@
       <c r="I25" s="3"/>
       <c r="J25" s="3"/>
       <c r="K25" s="3"/>
-      <c r="L25" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="26" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B26" s="3">
         <v>17</v>
       </c>
@@ -4498,12 +4099,8 @@
       <c r="I26" s="3"/>
       <c r="J26" s="3"/>
       <c r="K26" s="3"/>
-      <c r="L26" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="27" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B27" s="3">
         <v>18</v>
       </c>
@@ -4516,12 +4113,8 @@
       <c r="I27" s="3"/>
       <c r="J27" s="3"/>
       <c r="K27" s="3"/>
-      <c r="L27" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="28" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B28" s="3">
         <v>19</v>
       </c>
@@ -4534,12 +4127,8 @@
       <c r="I28" s="3"/>
       <c r="J28" s="3"/>
       <c r="K28" s="3"/>
-      <c r="L28" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(#REF!&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
-    </row>
-    <row r="29" spans="2:12" x14ac:dyDescent="0.15">
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B29" s="3">
         <v>20</v>
       </c>
@@ -4552,10 +4141,6 @@
       <c r="I29" s="3"/>
       <c r="J29" s="3"/>
       <c r="K29" s="3"/>
-      <c r="L29" t="e">
-        <f>#REF!&amp;" "&amp;#REF!&amp;" "&amp;IF(#REF!&lt;&gt;"","("&amp;#REF!&amp;")","")&amp;IF(C30&lt;&gt;"",",","")</f>
-        <v>#REF!</v>
-      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>

--- a/doc/04_DB定義書_CurrentDirectory.xlsx
+++ b/doc/04_DB定義書_CurrentDirectory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACBDED9-8EAC-4AF4-96FB-F77700F54BD8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ACAF32-F6CF-411C-B0BE-97C4A27E183D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1155" windowWidth="15375" windowHeight="9165" firstSheet="1" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="BGI" sheetId="5" r:id="rId4"/>
     <sheet name="TASK" sheetId="6" r:id="rId5"/>
     <sheet name="ACHIEVEMENT" sheetId="7" r:id="rId6"/>
+    <sheet name="USERACHIEVEMENT" sheetId="8" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="91">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -546,6 +547,31 @@
   </si>
   <si>
     <t>ACHIEVECONTENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タスク完了数</t>
+    <rPh sb="3" eb="5">
+      <t>カンリョウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>スウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASKCOUNT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERACHIEVEMENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザ実績マスタ</t>
+    <rPh sb="3" eb="5">
+      <t>ジッセキ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -687,16 +713,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>742949</xdr:colOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
       <xdr:row>1</xdr:row>
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>38099</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>400051</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -711,8 +737,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6619874" y="238125"/>
-          <a:ext cx="4752975" cy="781050"/>
+          <a:off x="6734175" y="238125"/>
+          <a:ext cx="5114926" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -794,7 +820,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> NULL, VOICESELECT int NOT NULL, BGISELECT int NOT NULL</a:t>
+            <a:t> NULL, VOICESELECT int NOT NULL, BGISELECT int NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TASKCOUNT int default 0 NOT NULL</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -1120,7 +1160,107 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>USERID INT NOT NULL, CONDITION VARCHAR(50) NOT NULL, STATUS VARCHAR(3) default '</a:t>
+            <a:t>CONDITION VARCHAR(50) NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>POINT int NOT NULL, ACHIEVECONTENT VARCHAR(30) NOT NULL)</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing6.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>419099</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>704849</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AA2AA8AA-7D7C-4227-A8F9-CE9FBADE506C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="6457949" y="257175"/>
+          <a:ext cx="5743575" cy="1114425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>create table USERACHIEVEMENT(</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ACHIEVEID NOT NULL, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>USERID INT NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> STATUS VARCHAR(3) default '</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1128,7 +1268,29 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>' NOT NULL, POINT int NOT NULL, ACHIEVECONTENT VARCHAR(30) NOT NULL)</a:t>
+            <a:t>' NOT NULL, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>PRIMARY KEY(ACHIEVEID,</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+            <a:t> USERID</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1465,8 +1627,8 @@
   </sheetPr>
   <dimension ref="A1:F86"/>
   <sheetViews>
-    <sheetView topLeftCell="D25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G7" sqref="G7"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1609,8 +1771,12 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>89</v>
+      </c>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
@@ -1880,8 +2046,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2186,14 +2352,24 @@
       <c r="B18" s="3">
         <v>9</v>
       </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
+      <c r="C18" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E18" s="3" t="s">
+        <v>28</v>
+      </c>
       <c r="F18" s="3"/>
       <c r="G18" s="3"/>
       <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
+      <c r="I18" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J18" s="3">
+        <v>0</v>
+      </c>
       <c r="K18" s="3"/>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
@@ -2361,7 +2537,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8DFD4F-0257-4E06-B0A5-56D1EC4D3B9A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="C7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -2803,7 +2979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABC84B5-3E2A-44BF-AB4E-FE9C5D3AB4FC}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="E25" workbookViewId="0">
+    <sheetView topLeftCell="A4" workbookViewId="0">
       <selection activeCell="M34" sqref="M34"/>
     </sheetView>
   </sheetViews>
@@ -3233,7 +3409,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0F3DB-914B-4F29-87A6-AF8DC21C9979}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="F16" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="M13" sqref="M13"/>
     </sheetView>
   </sheetViews>
@@ -3694,8 +3870,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E127DE-CF36-43F6-B7A4-D647F3EAF3DF}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3833,15 +4009,17 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>80</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>84</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
@@ -3855,17 +4033,15 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>80</v>
+        <v>82</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3">
-        <v>50</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
@@ -3879,46 +4055,36 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>86</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>30</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="3" t="s">
-        <v>82</v>
-      </c>
-      <c r="D14" s="3" t="s">
-        <v>83</v>
-      </c>
-      <c r="E14" s="3" t="s">
-        <v>28</v>
-      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
       <c r="F14" s="3"/>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I14" s="3"/>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
@@ -3926,23 +4092,13 @@
       <c r="B15" s="3">
         <v>6</v>
       </c>
-      <c r="C15" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E15" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F15" s="3">
-        <v>30</v>
-      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -4147,4 +4303,435 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7855226-40DF-4957-B98B-DA9F14699F21}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E14" sqref="E14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="11" max="11" width="21.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>
--- a/doc/04_DB定義書_CurrentDirectory.xlsx
+++ b/doc/04_DB定義書_CurrentDirectory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C3ACAF32-F6CF-411C-B0BE-97C4A27E183D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A754C3-B268-40F7-AE22-D3C7F23D69E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="308" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="94">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -572,6 +572,18 @@
     <rPh sb="3" eb="5">
       <t>ジッセキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>UPLOADUSER</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードユーザー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>デフォルトが-1ならば全員使用</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -719,8 +731,8 @@
       <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>400051</xdr:colOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>371475</xdr:colOff>
       <xdr:row>6</xdr:row>
       <xdr:rowOff>133350</xdr:rowOff>
     </xdr:to>
@@ -738,7 +750,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6734175" y="238125"/>
-          <a:ext cx="5114926" cy="990600"/>
+          <a:ext cx="8743950" cy="990600"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -796,8 +808,18 @@
             </a:rPr>
             <a:t>SECANSWER VARCHAR(32) NOT NULL,</a:t>
           </a:r>
-        </a:p>
-        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
               <a:solidFill>
@@ -834,12 +856,39 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TASKCOUNT int default 0 NOT NULL</a:t>
+            <a:t>TASKCOUNT int default 0 NOT NULL,</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>)</a:t>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> FOREIGN KEY (VOICESELECT) REFERENCES  VOICE (VOICESELECT),</a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t> FOREIGN KEY (BGISELECT) REFERENCES  BGI (BGISELECT))</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -855,13 +904,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>47625</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
       <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -876,8 +925,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6667500" y="257175"/>
-          <a:ext cx="3943350" cy="704850"/>
+          <a:off x="6781800" y="257174"/>
+          <a:ext cx="3943350" cy="847725"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -930,13 +979,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>723900</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>9</xdr:col>
-      <xdr:colOff>1790700</xdr:colOff>
+      <xdr:colOff>1381125</xdr:colOff>
       <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>85725</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -951,8 +1000,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6600825" y="323850"/>
-          <a:ext cx="3943350" cy="704850"/>
+          <a:off x="6734175" y="323849"/>
+          <a:ext cx="3533775" cy="685801"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -988,9 +1037,24 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>create table BGI (BGISELECT int default 0 PRIMARY KEY AUTO_INCREMENT NOT NULL, USERID int NOT NULL, BGIUPLOAD VARCHAR(100) NOT NULL)</a:t>
+            <a:t>create table BGI (BGISELECT int PRIMARY KEY AUTO_INCREMENT NOT NULL, UPLOADUSER int </a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>default -1  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NOT NULL, BGIUPLOAD VARCHAR(100) NOT NULL)</a:t>
+          </a:r>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1004,15 +1068,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
+      <xdr:colOff>742949</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:colOff>1028699</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>123825</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1027,8 +1091,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6296024" y="257175"/>
-          <a:ext cx="5743575" cy="771525"/>
+          <a:off x="6781799" y="238125"/>
+          <a:ext cx="5743575" cy="981075"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1078,7 +1142,13 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>' NOT NULL, TIME CHAR(5) NOT NULL, TASKCONTENT VARCHAR(32) NOT NULL)</a:t>
+            <a:t>' NOT NULL, TIME CHAR(5) NOT NULL, TASKCONTENT VARCHAR(32) NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> FOREIGN KEY (USERID) REFERENCES  IDPW (USERID))</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1182,15 +1252,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>419099</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19050</xdr:rowOff>
+      <xdr:colOff>400049</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1205,8 +1275,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6457949" y="257175"/>
-          <a:ext cx="5743575" cy="1114425"/>
+          <a:off x="6438899" y="152400"/>
+          <a:ext cx="9448801" cy="942975"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1248,19 +1318,15 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>ACHIEVEID NOT NULL, </a:t>
+            <a:t>ACHIEVEID int NOT NULL, USERID INT NOT NULL,</a:t>
           </a:r>
-        </a:p>
-        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>USERID INT NOT NULL,</a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t> STATUS VARCHAR(3) default '</a:t>
+            <a:t>STATUS VARCHAR(3) default '</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1269,6 +1335,36 @@
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>' NOT NULL, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t> FOREIGN KEY</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(ACHIEVEID) REFERENCES</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+            <a:t> ACHIEVEMENT</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP"/>
+            <a:t>(ACHIEVEID),</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
+            <a:t> </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>FOREIGN KEY (USERID) REFERENCES IDPW(userid),</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1286,7 +1382,7 @@
           </a:r>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP"/>
-            <a:t>) </a:t>
+            <a:t>)</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
@@ -2047,7 +2143,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+      <selection activeCell="F19" sqref="F19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2537,7 +2633,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8DFD4F-0257-4E06-B0A5-56D1EC4D3B9A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
@@ -2979,8 +3075,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABC84B5-3E2A-44BF-AB4E-FE9C5D3AB4FC}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="M34" sqref="M34"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="J5" sqref="J5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2994,6 +3090,7 @@
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="11" max="11" width="26.5" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
@@ -3117,10 +3214,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>47</v>
+        <v>92</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>48</v>
+        <v>91</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>28</v>
@@ -3132,9 +3229,11 @@
         <v>26</v>
       </c>
       <c r="J11" s="3">
-        <v>0</v>
-      </c>
-      <c r="K11" s="3"/>
+        <v>-1</v>
+      </c>
+      <c r="K11" s="3" t="s">
+        <v>93</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
@@ -3409,8 +3508,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0F3DB-914B-4F29-87A6-AF8DC21C9979}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M13" sqref="M13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3870,8 +3969,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E127DE-CF36-43F6-B7A4-D647F3EAF3DF}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J7" sqref="J7"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4309,8 +4408,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7855226-40DF-4957-B98B-DA9F14699F21}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E14" sqref="E14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F9" sqref="F9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>

--- a/doc/04_DB定義書_CurrentDirectory.xlsx
+++ b/doc/04_DB定義書_CurrentDirectory.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9A754C3-B268-40F7-AE22-D3C7F23D69E8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A06A3-FECE-48C7-9CA7-2FFD13A9CDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,6 +20,7 @@
     <sheet name="TASK" sheetId="6" r:id="rId5"/>
     <sheet name="ACHIEVEMENT" sheetId="7" r:id="rId6"/>
     <sheet name="USERACHIEVEMENT" sheetId="8" r:id="rId7"/>
+    <sheet name="テーブルの順番" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="309" uniqueCount="94">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="96">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -584,6 +585,14 @@
   </si>
   <si>
     <t>デフォルトが-1ならば全員使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASK</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERACHIEVEMENT</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -727,14 +736,14 @@
     <xdr:from>
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -749,8 +758,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734175" y="238125"/>
-          <a:ext cx="8743950" cy="990600"/>
+          <a:off x="6734175" y="133350"/>
+          <a:ext cx="8743950" cy="1285875"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1142,15 +1151,14 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>' NOT NULL, TIME CHAR(5) NOT NULL, TASKCONTENT VARCHAR(32) NOT NULL,</a:t>
+            <a:t>' NOT NULL, TIME CHAR(5) NOT NULL, TASKCONTENT VARCHAR(32) NOT NULL</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t> FOREIGN KEY (USERID) REFERENCES  IDPW (USERID))</a:t>
+            <a:t>)</a:t>
           </a:r>
-          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
     </xdr:sp>
@@ -1254,13 +1262,13 @@
       <xdr:col>5</xdr:col>
       <xdr:colOff>400049</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>142876</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>9525</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>19051</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1275,8 +1283,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6438899" y="152400"/>
-          <a:ext cx="9448801" cy="942975"/>
+          <a:off x="6438899" y="142876"/>
+          <a:ext cx="9448801" cy="1143000"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1358,6 +1366,8 @@
             <a:rPr lang="en-US" altLang="ja-JP"/>
             <a:t>(ACHIEVEID),</a:t>
           </a:r>
+        </a:p>
+        <a:p>
           <a:r>
             <a:rPr lang="en-US" altLang="ja-JP" baseline="0"/>
             <a:t> </a:t>
@@ -1724,7 +1734,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2143,7 +2153,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F19" sqref="F19"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2633,8 +2643,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8DFD4F-0257-4E06-B0A5-56D1EC4D3B9A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I13" sqref="I13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3075,8 +3085,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABC84B5-3E2A-44BF-AB4E-FE9C5D3AB4FC}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="J5" sqref="J5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3508,8 +3518,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0F3DB-914B-4F29-87A6-AF8DC21C9979}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3970,7 +3980,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4409,7 +4419,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F9" sqref="F9"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4833,4 +4843,44 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE66B80-A7DC-49C1-9E32-CAD38135B161}">
+  <dimension ref="B2:G2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G2" sqref="G2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="4" max="4" width="14.25" customWidth="1"/>
+    <col min="7" max="7" width="18.25" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>37</v>
+      </c>
+      <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
+        <v>24</v>
+      </c>
+      <c r="F2" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/doc/04_DB定義書_CurrentDirectory.xlsx
+++ b/doc/04_DB定義書_CurrentDirectory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9D5A06A3-FECE-48C7-9CA7-2FFD13A9CDF8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC8D7C-75AA-4CB2-A269-543E070D032E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
     <sheet name="BGI" sheetId="5" r:id="rId4"/>
     <sheet name="TASK" sheetId="6" r:id="rId5"/>
     <sheet name="ACHIEVEMENT" sheetId="7" r:id="rId6"/>
-    <sheet name="USERACHIEVEMENT" sheetId="8" r:id="rId7"/>
+    <sheet name="USERACHIEVEMENT" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="テーブルの順番" sheetId="9" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="315" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="99">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -325,10 +325,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>SWITCH</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>VOICESELECT</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -433,10 +429,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>DAY</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>完了フラグ</t>
     <rPh sb="0" eb="2">
       <t>カンリョウ</t>
@@ -451,10 +443,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TIME</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>期限</t>
     <rPh sb="0" eb="2">
       <t>キゲン</t>
@@ -528,17 +516,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>実績ポイント</t>
-    <rPh sb="0" eb="2">
-      <t>ジッセキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>POINT</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>CONDITION</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -576,23 +553,70 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>UPLOADUSER</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>アップロードユーザー</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>デフォルトが-1ならば全員使用</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>TASK</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>USERACHIEVEMENT</t>
+    <t>アップロードユーザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>タイトル</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGITITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VOICETITLE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>VOICESWITCH</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>実績IDをタスク完了数と比較して完了判定をする</t>
+    <rPh sb="0" eb="2">
+      <t>ジッセキ</t>
+    </rPh>
+    <rPh sb="8" eb="11">
+      <t>カンリョウスウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ヒカク</t>
+    </rPh>
+    <rPh sb="16" eb="20">
+      <t>カンリョウハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>REGISTDAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>TASKFLAG</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>DEADLINE</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完了日付</t>
+    <rPh sb="0" eb="4">
+      <t>カンリョウヒヅケ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>COMPDAY</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>USERIDが-1ならば全員使用</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -737,13 +761,13 @@
       <xdr:col>6</xdr:col>
       <xdr:colOff>0</xdr:colOff>
       <xdr:row>0</xdr:row>
-      <xdr:rowOff>133350</xdr:rowOff>
+      <xdr:rowOff>133351</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>15</xdr:col>
       <xdr:colOff>371475</xdr:colOff>
       <xdr:row>7</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>47626</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -758,8 +782,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734175" y="133350"/>
-          <a:ext cx="8743950" cy="1285875"/>
+          <a:off x="6734175" y="133351"/>
+          <a:ext cx="8743950" cy="1181100"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -803,7 +827,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>VARCHAR(60) NOT NULL, SECQUESTION int NOT NULL, </a:t>
+            <a:t>VARCHAR(60) NOT NULL, SECQUESTION varchar(20) NOT NULL, </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -827,7 +851,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> </a:t>
+            <a:t> VOICE</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -851,7 +875,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> NULL, VOICESELECT int NOT NULL, BGISELECT int NOT NULL,</a:t>
+            <a:t> NULL, VOICESELECT int NOT NULL, </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -865,7 +889,21 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>TASKCOUNT int default 0 NOT NULL,</a:t>
+            <a:t>BGISELECT int NOT NULL, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>TASKCOUNT int default 0 NOT NULL, </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -879,7 +917,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> FOREIGN KEY (VOICESELECT) REFERENCES  VOICE (VOICESELECT),</a:t>
+            <a:t>FOREIGN KEY (VOICESELECT) REFERENCES  VOICE (VOICESELECT), </a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -893,7 +931,7 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t> FOREIGN KEY (BGISELECT) REFERENCES  BGI (BGISELECT))</a:t>
+            <a:t>FOREIGN KEY (BGISELECT) REFERENCES  BGI (BGISELECT))</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
             <a:effectLst/>
@@ -910,16 +948,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>47625</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>19049</xdr:rowOff>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>695325</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>123824</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1857375</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>9524</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>628650</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -934,8 +972,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6781800" y="257174"/>
-          <a:ext cx="3943350" cy="847725"/>
+          <a:off x="6686550" y="123824"/>
+          <a:ext cx="5391150" cy="1143001"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -971,7 +1009,31 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>create table VOICE (VOICESELECT int PRIMARY KEY AUTO_INCREMENT NOT NULL, COMVOICE VARCHAR(100) NOT NULL, INCOMPVOICE VARCHAR(100) NOT NULL, ACVOICE VARCHAR(100) NOT NULL)</a:t>
+            <a:t>create table VOICE (VOICESELECT int PRIMARY KEY AUTO_INCREMENT NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>VOICETITLE varchar(50) NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> COMPVOICE VARCHAR(100) NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> INCOMPVOICE VARCHAR(100) NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> ACVOICE VARCHAR(100) NOT NULL)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -986,15 +1048,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>723900</xdr:colOff>
+      <xdr:colOff>619125</xdr:colOff>
       <xdr:row>1</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>19049</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>1381125</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1009,8 +1071,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6734175" y="323849"/>
-          <a:ext cx="3533775" cy="685801"/>
+          <a:off x="6629400" y="257174"/>
+          <a:ext cx="4838700" cy="1000126"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1046,7 +1108,19 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>create table BGI (BGISELECT int PRIMARY KEY AUTO_INCREMENT NOT NULL, UPLOADUSER int </a:t>
+            <a:t>create table BGI (BGISELECT int PRIMARY KEY AUTO_INCREMENT NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>BGITITLE varchar(50) NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> USERID int </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1062,7 +1136,13 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>NOT NULL, BGIUPLOAD VARCHAR(100) NOT NULL)</a:t>
+            <a:t>NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> BGIUPLOAD VARCHAR(100) NOT NULL)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1143,7 +1223,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>USERID INT NOT NULL, DAY CHAR(10) NOT NULL, STATUS VARCHAR(3) default '</a:t>
+            <a:t>USERID INT NOT NULL, REGISTDAY CHAR(10) NOT NULL, COMPDAY CHAR(10) NOT NULL, TASKFLAG VARCHAR(3) default '</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1151,7 +1231,7 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>' NOT NULL, TIME CHAR(5) NOT NULL, TASKCONTENT VARCHAR(32) NOT NULL</a:t>
+            <a:t>' NOT NULL, DEADLINE CHAR(5), TASKCONTENT VARCHAR(32) NOT NULL</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -1232,19 +1312,19 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>create table ACHIEVEMENT( ACHIEVEID INT PRIMARY KEY AUTO_INCREMENT NOT NULL, </a:t>
+            <a:t>create table ACHIEVEMENT( ACHIEVEID INT NOT NULL, </a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>CONDITION VARCHAR(50) NOT NULL,</a:t>
+            <a:t>CONDITION VARCHAR(30) NOT NULL,</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>POINT int NOT NULL, ACHIEVECONTENT VARCHAR(30) NOT NULL)</a:t>
+            <a:t>ACHIEVECONTENT VARCHAR(30) NOT NULL)</a:t>
           </a:r>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
@@ -1734,7 +1814,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1762,7 +1842,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1865,10 +1945,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -1877,12 +1957,8 @@
       <c r="B13" s="3">
         <v>6</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>89</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
     </row>
@@ -2153,7 +2229,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="M11" sqref="M11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2186,7 +2262,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2345,9 +2421,11 @@
         <v>43</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F13" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>20</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
@@ -2387,10 +2465,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>50</v>
+        <v>91</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -2405,7 +2483,7 @@
         <v>0</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:12" x14ac:dyDescent="0.15">
@@ -2413,10 +2491,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>28</v>
@@ -2437,10 +2515,10 @@
         <v>8</v>
       </c>
       <c r="C17" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D17" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D17" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E17" s="3" t="s">
         <v>28</v>
@@ -2459,10 +2537,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>87</v>
+        <v>82</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>88</v>
+        <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>28</v>
@@ -2643,8 +2721,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BE8DFD4F-0257-4E06-B0A5-56D1EC4D3B9A}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I13" sqref="I13"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="L9" sqref="L9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2676,7 +2754,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2755,10 +2833,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -2783,16 +2861,16 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>55</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
       </c>
       <c r="F11" s="3">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
@@ -2807,10 +2885,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -2831,10 +2909,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -2854,13 +2932,23 @@
       <c r="B14" s="3">
         <v>5</v>
       </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
+      <c r="C14" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="E14" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F14" s="3">
+        <v>100</v>
+      </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
+      <c r="I14" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J14" s="3"/>
       <c r="K14" s="3"/>
     </row>
@@ -3085,8 +3173,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ABC84B5-3E2A-44BF-AB4E-FE9C5D3AB4FC}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3119,7 +3207,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3198,10 +3286,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>61</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>62</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -3224,62 +3312,72 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F11" s="3">
+        <v>50</v>
+      </c>
       <c r="G11" s="3"/>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J11" s="3">
-        <v>-1</v>
-      </c>
-      <c r="K11" s="3" t="s">
-        <v>93</v>
-      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>63</v>
+        <v>87</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3">
-        <v>100</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
+      <c r="J12" s="3">
+        <v>-1</v>
+      </c>
+      <c r="K12" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>100</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
@@ -3518,8 +3616,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0F3DB-914B-4F29-87A6-AF8DC21C9979}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3552,7 +3650,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3631,10 +3729,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>65</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>66</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -3679,10 +3777,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>68</v>
+        <v>93</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>49</v>
@@ -3703,25 +3801,23 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>69</v>
+        <v>96</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>75</v>
+        <v>97</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F13" s="3">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
       <c r="I13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>70</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3729,23 +3825,25 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>71</v>
+        <v>94</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>49</v>
+        <v>25</v>
       </c>
       <c r="F14" s="3">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="G14" s="3"/>
       <c r="H14" s="3"/>
       <c r="I14" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J14" s="3"/>
+      <c r="J14" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="K14" s="3"/>
     </row>
     <row r="15" spans="1:12" x14ac:dyDescent="0.15">
@@ -3753,22 +3851,20 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>74</v>
+        <v>95</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>25</v>
+        <v>49</v>
       </c>
       <c r="F15" s="3">
-        <v>32</v>
+        <v>5</v>
       </c>
       <c r="G15" s="3"/>
       <c r="H15" s="3"/>
-      <c r="I15" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I15" s="3"/>
       <c r="J15" s="3"/>
       <c r="K15" s="3"/>
     </row>
@@ -3776,13 +3872,23 @@
       <c r="B16" s="3">
         <v>7</v>
       </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
+      <c r="C16" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="D16" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="E16" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F16" s="3">
+        <v>32</v>
+      </c>
       <c r="G16" s="3"/>
       <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
+      <c r="I16" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J16" s="3"/>
       <c r="K16" s="3"/>
     </row>
@@ -3979,8 +4085,437 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E127DE-CF36-43F6-B7A4-D647F3EAF3DF}">
   <dimension ref="A1:L29"/>
   <sheetViews>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="I15" sqref="I15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+    <col min="3" max="3" width="19.375" customWidth="1"/>
+    <col min="4" max="4" width="16.25" customWidth="1"/>
+    <col min="5" max="5" width="18.5" customWidth="1"/>
+    <col min="6" max="6" width="9.75" customWidth="1"/>
+    <col min="7" max="7" width="7.25" customWidth="1"/>
+    <col min="8" max="8" width="9.5" customWidth="1"/>
+    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="33.875" customWidth="1"/>
+    <col min="11" max="11" width="41" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
+      <c r="A1" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B3" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E3" s="6">
+        <v>44719</v>
+      </c>
+    </row>
+    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="E4" s="3"/>
+    </row>
+    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B5" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="E5" s="3"/>
+    </row>
+    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B9" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="I9" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="J9" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="K9" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L9" s="5"/>
+    </row>
+    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B10" s="3">
+        <v>1</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="F10" s="3"/>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B11" s="3">
+        <v>2</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="3">
+        <v>30</v>
+      </c>
+      <c r="G11" s="3"/>
+      <c r="H11" s="3"/>
+      <c r="I11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J11" s="3"/>
+      <c r="K11" s="3"/>
+    </row>
+    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B12" s="3">
+        <v>3</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>30</v>
+      </c>
+      <c r="G12" s="3"/>
+      <c r="H12" s="3"/>
+      <c r="I12" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="J12" s="3"/>
+      <c r="K12" s="3"/>
+    </row>
+    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B13" s="3">
+        <v>4</v>
+      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
+      <c r="G13" s="3"/>
+      <c r="H13" s="3"/>
+      <c r="I13" s="3"/>
+      <c r="J13" s="3"/>
+      <c r="K13" s="3"/>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B14" s="3">
+        <v>5</v>
+      </c>
+      <c r="C14" s="3"/>
+      <c r="D14" s="3"/>
+      <c r="E14" s="3"/>
+      <c r="F14" s="3"/>
+      <c r="G14" s="3"/>
+      <c r="H14" s="3"/>
+      <c r="I14" s="3"/>
+      <c r="J14" s="3"/>
+      <c r="K14" s="3"/>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B15" s="3">
+        <v>6</v>
+      </c>
+      <c r="C15" s="3"/>
+      <c r="D15" s="3"/>
+      <c r="E15" s="3"/>
+      <c r="F15" s="3"/>
+      <c r="G15" s="3"/>
+      <c r="H15" s="3"/>
+      <c r="I15" s="3"/>
+      <c r="J15" s="3"/>
+      <c r="K15" s="3"/>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
+      <c r="B16" s="3">
+        <v>7</v>
+      </c>
+      <c r="C16" s="3"/>
+      <c r="D16" s="3"/>
+      <c r="E16" s="3"/>
+      <c r="F16" s="3"/>
+      <c r="G16" s="3"/>
+      <c r="H16" s="3"/>
+      <c r="I16" s="3"/>
+      <c r="J16" s="3"/>
+      <c r="K16" s="3"/>
+    </row>
+    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B17" s="3">
+        <v>8</v>
+      </c>
+      <c r="C17" s="3"/>
+      <c r="D17" s="3"/>
+      <c r="E17" s="3"/>
+      <c r="F17" s="3"/>
+      <c r="G17" s="3"/>
+      <c r="H17" s="3"/>
+      <c r="I17" s="3"/>
+      <c r="J17" s="3"/>
+      <c r="K17" s="3"/>
+    </row>
+    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B18" s="3">
+        <v>9</v>
+      </c>
+      <c r="C18" s="3"/>
+      <c r="D18" s="3"/>
+      <c r="E18" s="3"/>
+      <c r="F18" s="3"/>
+      <c r="G18" s="3"/>
+      <c r="H18" s="3"/>
+      <c r="I18" s="3"/>
+      <c r="J18" s="3"/>
+      <c r="K18" s="3"/>
+    </row>
+    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B19" s="3">
+        <v>10</v>
+      </c>
+      <c r="C19" s="3"/>
+      <c r="D19" s="3"/>
+      <c r="E19" s="3"/>
+      <c r="F19" s="3"/>
+      <c r="G19" s="3"/>
+      <c r="H19" s="3"/>
+      <c r="I19" s="3"/>
+      <c r="J19" s="3"/>
+      <c r="K19" s="3"/>
+    </row>
+    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B20" s="3">
+        <v>11</v>
+      </c>
+      <c r="C20" s="3"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="3"/>
+      <c r="F20" s="3"/>
+      <c r="G20" s="3"/>
+      <c r="H20" s="3"/>
+      <c r="I20" s="3"/>
+      <c r="J20" s="3"/>
+      <c r="K20" s="3"/>
+    </row>
+    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B21" s="3">
+        <v>12</v>
+      </c>
+      <c r="C21" s="3"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="3"/>
+      <c r="F21" s="3"/>
+      <c r="G21" s="3"/>
+      <c r="H21" s="3"/>
+      <c r="I21" s="3"/>
+      <c r="J21" s="3"/>
+      <c r="K21" s="3"/>
+    </row>
+    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B22" s="3">
+        <v>13</v>
+      </c>
+      <c r="C22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="3"/>
+      <c r="F22" s="3"/>
+      <c r="G22" s="3"/>
+      <c r="H22" s="3"/>
+      <c r="I22" s="3"/>
+      <c r="J22" s="3"/>
+      <c r="K22" s="3"/>
+    </row>
+    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B23" s="3">
+        <v>14</v>
+      </c>
+      <c r="C23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="3"/>
+      <c r="F23" s="3"/>
+      <c r="G23" s="3"/>
+      <c r="H23" s="3"/>
+      <c r="I23" s="3"/>
+      <c r="J23" s="3"/>
+      <c r="K23" s="3"/>
+    </row>
+    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B24" s="3">
+        <v>15</v>
+      </c>
+      <c r="C24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="3"/>
+      <c r="F24" s="3"/>
+      <c r="G24" s="3"/>
+      <c r="H24" s="3"/>
+      <c r="I24" s="3"/>
+      <c r="J24" s="3"/>
+      <c r="K24" s="3"/>
+    </row>
+    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B25" s="3">
+        <v>16</v>
+      </c>
+      <c r="C25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="3"/>
+      <c r="F25" s="3"/>
+      <c r="G25" s="3"/>
+      <c r="H25" s="3"/>
+      <c r="I25" s="3"/>
+      <c r="J25" s="3"/>
+      <c r="K25" s="3"/>
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B26" s="3">
+        <v>17</v>
+      </c>
+      <c r="C26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="3"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="3"/>
+      <c r="H26" s="3"/>
+      <c r="I26" s="3"/>
+      <c r="J26" s="3"/>
+      <c r="K26" s="3"/>
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B27" s="3">
+        <v>18</v>
+      </c>
+      <c r="C27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="3"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="3"/>
+      <c r="H27" s="3"/>
+      <c r="I27" s="3"/>
+      <c r="J27" s="3"/>
+      <c r="K27" s="3"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B28" s="3">
+        <v>19</v>
+      </c>
+      <c r="C28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="3"/>
+      <c r="F28" s="3"/>
+      <c r="G28" s="3"/>
+      <c r="H28" s="3"/>
+      <c r="I28" s="3"/>
+      <c r="J28" s="3"/>
+      <c r="K28" s="3"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="B29" s="3">
+        <v>20</v>
+      </c>
+      <c r="C29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="3"/>
+      <c r="F29" s="3"/>
+      <c r="G29" s="3"/>
+      <c r="H29" s="3"/>
+      <c r="I29" s="3"/>
+      <c r="J29" s="3"/>
+      <c r="K29" s="3"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7855226-40DF-4957-B98B-DA9F14699F21}">
+  <dimension ref="A1:L29"/>
+  <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3999,7 +4534,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4013,7 +4548,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4035,7 +4570,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>77</v>
+        <v>85</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4047,7 +4582,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>78</v>
+        <v>84</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4092,10 +4627,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -4104,9 +4639,7 @@
       <c r="G10" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="H10" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="H10" s="3"/>
       <c r="I10" s="3" t="s">
         <v>26</v>
       </c>
@@ -4118,18 +4651,18 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>80</v>
+        <v>47</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>84</v>
+        <v>48</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F11" s="3">
-        <v>50</v>
-      </c>
-      <c r="G11" s="3"/>
+        <v>28</v>
+      </c>
+      <c r="F11" s="3"/>
+      <c r="G11" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="H11" s="3"/>
       <c r="I11" s="3" t="s">
         <v>26</v>
@@ -4142,44 +4675,38 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>82</v>
+        <v>67</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>83</v>
+        <v>72</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F12" s="3"/>
+        <v>25</v>
+      </c>
+      <c r="F12" s="3">
+        <v>3</v>
+      </c>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J12" s="3"/>
+      <c r="J12" s="3" t="s">
+        <v>68</v>
+      </c>
       <c r="K12" s="3"/>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B13" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="3" t="s">
-        <v>81</v>
-      </c>
-      <c r="D13" s="3" t="s">
-        <v>86</v>
-      </c>
-      <c r="E13" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F13" s="3">
-        <v>30</v>
-      </c>
+      <c r="C13" s="3"/>
+      <c r="D13" s="3"/>
+      <c r="E13" s="3"/>
+      <c r="F13" s="3"/>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3" t="s">
-        <v>26</v>
-      </c>
+      <c r="I13" s="3"/>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
@@ -4414,443 +4941,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7855226-40DF-4957-B98B-DA9F14699F21}">
-  <dimension ref="A1:L29"/>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE66B80-A7DC-49C1-9E32-CAD38135B161}">
+  <dimension ref="B2:F2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="16.125" customWidth="1"/>
-    <col min="3" max="3" width="19.375" customWidth="1"/>
-    <col min="4" max="4" width="16.25" customWidth="1"/>
-    <col min="5" max="5" width="18.5" customWidth="1"/>
-    <col min="6" max="6" width="9.75" customWidth="1"/>
-    <col min="7" max="7" width="7.25" customWidth="1"/>
-    <col min="8" max="8" width="9.5" customWidth="1"/>
-    <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="33.875" customWidth="1"/>
-    <col min="11" max="11" width="21.5" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
-      <c r="A1" s="4" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>21</v>
-      </c>
-      <c r="D2" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="3" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B3" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D3" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="E3" s="6">
-        <v>44719</v>
-      </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B4" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>90</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="E4" s="3"/>
-    </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B5" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>89</v>
-      </c>
-      <c r="D5" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="E5" s="3"/>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B9" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="D9" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G9" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="I9" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="J9" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="K9" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L9" s="5"/>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B10" s="3">
-        <v>1</v>
-      </c>
-      <c r="C10" s="3" t="s">
-        <v>79</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>85</v>
-      </c>
-      <c r="E10" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F10" s="3"/>
-      <c r="G10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H10" s="3"/>
-      <c r="I10" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B11" s="3">
-        <v>2</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="E11" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="F11" s="3"/>
-      <c r="G11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="H11" s="3"/>
-      <c r="I11" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B12" s="3">
-        <v>3</v>
-      </c>
-      <c r="C12" s="3" t="s">
-        <v>69</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>75</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="3">
-        <v>3</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="J12" s="3" t="s">
-        <v>70</v>
-      </c>
-      <c r="K12" s="3"/>
-    </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B13" s="3">
-        <v>4</v>
-      </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
-      <c r="G13" s="3"/>
-      <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
-      <c r="J13" s="3"/>
-      <c r="K13" s="3"/>
-    </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B14" s="3">
-        <v>5</v>
-      </c>
-      <c r="C14" s="3"/>
-      <c r="D14" s="3"/>
-      <c r="E14" s="3"/>
-      <c r="F14" s="3"/>
-      <c r="G14" s="3"/>
-      <c r="H14" s="3"/>
-      <c r="I14" s="3"/>
-      <c r="J14" s="3"/>
-      <c r="K14" s="3"/>
-    </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B15" s="3">
-        <v>6</v>
-      </c>
-      <c r="C15" s="3"/>
-      <c r="D15" s="3"/>
-      <c r="E15" s="3"/>
-      <c r="F15" s="3"/>
-      <c r="G15" s="3"/>
-      <c r="H15" s="3"/>
-      <c r="I15" s="3"/>
-      <c r="J15" s="3"/>
-      <c r="K15" s="3"/>
-    </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.15">
-      <c r="B16" s="3">
-        <v>7</v>
-      </c>
-      <c r="C16" s="3"/>
-      <c r="D16" s="3"/>
-      <c r="E16" s="3"/>
-      <c r="F16" s="3"/>
-      <c r="G16" s="3"/>
-      <c r="H16" s="3"/>
-      <c r="I16" s="3"/>
-      <c r="J16" s="3"/>
-      <c r="K16" s="3"/>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B17" s="3">
-        <v>8</v>
-      </c>
-      <c r="C17" s="3"/>
-      <c r="D17" s="3"/>
-      <c r="E17" s="3"/>
-      <c r="F17" s="3"/>
-      <c r="G17" s="3"/>
-      <c r="H17" s="3"/>
-      <c r="I17" s="3"/>
-      <c r="J17" s="3"/>
-      <c r="K17" s="3"/>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B18" s="3">
-        <v>9</v>
-      </c>
-      <c r="C18" s="3"/>
-      <c r="D18" s="3"/>
-      <c r="E18" s="3"/>
-      <c r="F18" s="3"/>
-      <c r="G18" s="3"/>
-      <c r="H18" s="3"/>
-      <c r="I18" s="3"/>
-      <c r="J18" s="3"/>
-      <c r="K18" s="3"/>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B19" s="3">
-        <v>10</v>
-      </c>
-      <c r="C19" s="3"/>
-      <c r="D19" s="3"/>
-      <c r="E19" s="3"/>
-      <c r="F19" s="3"/>
-      <c r="G19" s="3"/>
-      <c r="H19" s="3"/>
-      <c r="I19" s="3"/>
-      <c r="J19" s="3"/>
-      <c r="K19" s="3"/>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B20" s="3">
-        <v>11</v>
-      </c>
-      <c r="C20" s="3"/>
-      <c r="D20" s="3"/>
-      <c r="E20" s="3"/>
-      <c r="F20" s="3"/>
-      <c r="G20" s="3"/>
-      <c r="H20" s="3"/>
-      <c r="I20" s="3"/>
-      <c r="J20" s="3"/>
-      <c r="K20" s="3"/>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B21" s="3">
-        <v>12</v>
-      </c>
-      <c r="C21" s="3"/>
-      <c r="D21" s="3"/>
-      <c r="E21" s="3"/>
-      <c r="F21" s="3"/>
-      <c r="G21" s="3"/>
-      <c r="H21" s="3"/>
-      <c r="I21" s="3"/>
-      <c r="J21" s="3"/>
-      <c r="K21" s="3"/>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B22" s="3">
-        <v>13</v>
-      </c>
-      <c r="C22" s="3"/>
-      <c r="D22" s="3"/>
-      <c r="E22" s="3"/>
-      <c r="F22" s="3"/>
-      <c r="G22" s="3"/>
-      <c r="H22" s="3"/>
-      <c r="I22" s="3"/>
-      <c r="J22" s="3"/>
-      <c r="K22" s="3"/>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B23" s="3">
-        <v>14</v>
-      </c>
-      <c r="C23" s="3"/>
-      <c r="D23" s="3"/>
-      <c r="E23" s="3"/>
-      <c r="F23" s="3"/>
-      <c r="G23" s="3"/>
-      <c r="H23" s="3"/>
-      <c r="I23" s="3"/>
-      <c r="J23" s="3"/>
-      <c r="K23" s="3"/>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B24" s="3">
-        <v>15</v>
-      </c>
-      <c r="C24" s="3"/>
-      <c r="D24" s="3"/>
-      <c r="E24" s="3"/>
-      <c r="F24" s="3"/>
-      <c r="G24" s="3"/>
-      <c r="H24" s="3"/>
-      <c r="I24" s="3"/>
-      <c r="J24" s="3"/>
-      <c r="K24" s="3"/>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B25" s="3">
-        <v>16</v>
-      </c>
-      <c r="C25" s="3"/>
-      <c r="D25" s="3"/>
-      <c r="E25" s="3"/>
-      <c r="F25" s="3"/>
-      <c r="G25" s="3"/>
-      <c r="H25" s="3"/>
-      <c r="I25" s="3"/>
-      <c r="J25" s="3"/>
-      <c r="K25" s="3"/>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B26" s="3">
-        <v>17</v>
-      </c>
-      <c r="C26" s="3"/>
-      <c r="D26" s="3"/>
-      <c r="E26" s="3"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="3"/>
-      <c r="H26" s="3"/>
-      <c r="I26" s="3"/>
-      <c r="J26" s="3"/>
-      <c r="K26" s="3"/>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B27" s="3">
-        <v>18</v>
-      </c>
-      <c r="C27" s="3"/>
-      <c r="D27" s="3"/>
-      <c r="E27" s="3"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="3"/>
-      <c r="H27" s="3"/>
-      <c r="I27" s="3"/>
-      <c r="J27" s="3"/>
-      <c r="K27" s="3"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B28" s="3">
-        <v>19</v>
-      </c>
-      <c r="C28" s="3"/>
-      <c r="D28" s="3"/>
-      <c r="E28" s="3"/>
-      <c r="F28" s="3"/>
-      <c r="G28" s="3"/>
-      <c r="H28" s="3"/>
-      <c r="I28" s="3"/>
-      <c r="J28" s="3"/>
-      <c r="K28" s="3"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
-      <c r="B29" s="3">
-        <v>20</v>
-      </c>
-      <c r="C29" s="3"/>
-      <c r="D29" s="3"/>
-      <c r="E29" s="3"/>
-      <c r="F29" s="3"/>
-      <c r="G29" s="3"/>
-      <c r="H29" s="3"/>
-      <c r="I29" s="3"/>
-      <c r="J29" s="3"/>
-      <c r="K29" s="3"/>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE66B80-A7DC-49C1-9E32-CAD38135B161}">
-  <dimension ref="B2:G2"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G2" sqref="G2"/>
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4859,7 +4955,7 @@
     <col min="7" max="7" width="18.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:7" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>36</v>
       </c>
@@ -4867,16 +4963,13 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E2" t="s">
         <v>24</v>
       </c>
       <c r="F2" t="s">
-        <v>94</v>
-      </c>
-      <c r="G2" t="s">
-        <v>95</v>
+        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/doc/04_DB定義書_CurrentDirectory.xlsx
+++ b/doc/04_DB定義書_CurrentDirectory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DACC8D7C-75AA-4CB2-A269-543E070D032E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C3B3B-A4A9-4333-9C0B-06C367C28D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="120" windowWidth="15375" windowHeight="10800" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="100">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -617,6 +617,10 @@
   </si>
   <si>
     <t>USERIDが-1ならば全員使用</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>""</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -1223,7 +1227,15 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>USERID INT NOT NULL, REGISTDAY CHAR(10) NOT NULL, COMPDAY CHAR(10) NOT NULL, TASKFLAG VARCHAR(3) default '</a:t>
+            <a:t>USERID INT NOT NULL, REGISTDAY CHAR(10) NOT NULL, COMPDAY CHAR(10) default ''</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> NOT NULL</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>, TASKFLAG VARCHAR(3) default '</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -2229,7 +2241,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M11" sqref="M11"/>
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3616,8 +3628,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0F3DB-914B-4F29-87A6-AF8DC21C9979}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="L14" sqref="L14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3783,11 +3795,9 @@
         <v>93</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>49</v>
-      </c>
-      <c r="F12" s="3">
-        <v>10</v>
-      </c>
+        <v>28</v>
+      </c>
+      <c r="F12" s="3"/>
       <c r="G12" s="3"/>
       <c r="H12" s="3"/>
       <c r="I12" s="3" t="s">
@@ -3817,7 +3827,9 @@
       <c r="I13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3"/>
+      <c r="J13" s="3" t="s">
+        <v>99</v>
+      </c>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -4945,7 +4957,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE66B80-A7DC-49C1-9E32-CAD38135B161}">
   <dimension ref="B2:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_CurrentDirectory.xlsx
+++ b/doc/04_DB定義書_CurrentDirectory.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\dojo6\doc\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E12C3B3B-A4A9-4333-9C0B-06C367C28D2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512276F-EADF-4EDF-9BB8-F1C54A8AE3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="120" windowWidth="15375" windowHeight="10800" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1185" yWindow="300" windowWidth="15375" windowHeight="10800" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="319" uniqueCount="100">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="102">
   <si>
     <t>テーブル一覧</t>
     <rPh sb="4" eb="6">
@@ -410,10 +410,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>BGIUPLOAD</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>タスクID</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -553,10 +549,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>TASK</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>アップロードユーザ</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -620,7 +612,44 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>""</t>
+    <t>ユーザーを特定するのに使用</t>
+    <rPh sb="5" eb="7">
+      <t>トクテイ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>シヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ユーザーの名前　重複しないように登録される</t>
+    <rPh sb="5" eb="7">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>チョウフク</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>トウロク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アップロードフォームの表示非表示にも使われる</t>
+    <rPh sb="11" eb="16">
+      <t>ヒョウジヒヒョウジ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>BGICONTENT</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ACHIEVETITLE</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -831,7 +860,13 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>VARCHAR(60) NOT NULL, SECQUESTION varchar(20) NOT NULL, </a:t>
+            <a:t>VARCHAR(60) NOT NULL,</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t> SECQUESTION varchar(20) NOT NULL, </a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
@@ -1146,7 +1181,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t> BGIUPLOAD VARCHAR(100) NOT NULL)</a:t>
+            <a:t> BGICONTENT VARCHAR(100) NOT NULL)</a:t>
           </a:r>
         </a:p>
       </xdr:txBody>
@@ -1227,15 +1262,7 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>USERID INT NOT NULL, REGISTDAY CHAR(10) NOT NULL, COMPDAY CHAR(10) default ''</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
-            <a:t> NOT NULL</a:t>
-          </a:r>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>, TASKFLAG VARCHAR(3) default '</a:t>
+            <a:t>USERID INT NOT NULL, REGISTDAY int NOT NULL, COMPDAY CHAR(10) NOT NULL, TASKFLAG VARCHAR(3) default '</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1326,6 +1353,17 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>create table ACHIEVEMENT( ACHIEVEID INT NOT NULL, </a:t>
           </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>ACHIEVETITLE</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100" baseline="0"/>
+            <a:t> VARCHAR(30) NOT NULL,</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
         </a:p>
         <a:p>
           <a:r>
@@ -1826,7 +1864,7 @@
   <dimension ref="A1:F86"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+      <selection activeCell="D12" sqref="D12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -1854,7 +1892,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.15">
@@ -1957,10 +1995,10 @@
         <v>5</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>74</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>75</v>
       </c>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -2240,8 +2278,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J17" sqref="J17"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2255,7 +2293,7 @@
     <col min="8" max="8" width="9.5" customWidth="1"/>
     <col min="9" max="9" width="11.25" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="33.875" customWidth="1"/>
-    <col min="11" max="11" width="12" customWidth="1"/>
+    <col min="11" max="11" width="45.25" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
@@ -2274,7 +2312,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2372,7 +2410,9 @@
         <v>26</v>
       </c>
       <c r="J10" s="3"/>
-      <c r="K10" s="3"/>
+      <c r="K10" s="3" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B11" s="3">
@@ -2396,7 +2436,9 @@
         <v>26</v>
       </c>
       <c r="J11" s="3"/>
-      <c r="K11" s="3"/>
+      <c r="K11" s="3" t="s">
+        <v>98</v>
+      </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.15">
       <c r="B12" s="3">
@@ -2480,7 +2522,7 @@
         <v>51</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>28</v>
@@ -2549,10 +2591,10 @@
         <v>9</v>
       </c>
       <c r="C18" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="D18" s="3" t="s">
         <v>82</v>
-      </c>
-      <c r="D18" s="3" t="s">
-        <v>83</v>
       </c>
       <c r="E18" s="3" t="s">
         <v>28</v>
@@ -2566,7 +2608,9 @@
       <c r="J18" s="3">
         <v>0</v>
       </c>
-      <c r="K18" s="3"/>
+      <c r="K18" s="3" t="s">
+        <v>99</v>
+      </c>
     </row>
     <row r="19" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B19" s="3">
@@ -2734,7 +2778,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+      <selection activeCell="F11" sqref="F11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2766,7 +2810,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -2873,10 +2917,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>88</v>
-      </c>
-      <c r="D11" s="3" t="s">
-        <v>90</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -3186,7 +3230,7 @@
   <dimension ref="A1:L29"/>
   <sheetViews>
     <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="K4" sqref="K4"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3219,7 +3263,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3324,10 +3368,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -3348,7 +3392,7 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>48</v>
@@ -3366,7 +3410,7 @@
         <v>-1</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="13" spans="1:12" x14ac:dyDescent="0.15">
@@ -3377,7 +3421,7 @@
         <v>62</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>63</v>
+        <v>100</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>25</v>
@@ -3628,8 +3672,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0F3DB-914B-4F29-87A6-AF8DC21C9979}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="L14" sqref="L14"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I12" sqref="I12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3662,7 +3706,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -3741,10 +3785,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" s="3" t="s">
         <v>64</v>
-      </c>
-      <c r="D10" s="3" t="s">
-        <v>65</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -3789,10 +3833,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>28</v>
@@ -3811,10 +3855,10 @@
         <v>4</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E13" s="3" t="s">
         <v>49</v>
@@ -3827,9 +3871,7 @@
       <c r="I13" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="J13" s="3" t="s">
-        <v>99</v>
-      </c>
+      <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
     <row r="14" spans="1:12" x14ac:dyDescent="0.15">
@@ -3837,10 +3879,10 @@
         <v>5</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="E14" s="3" t="s">
         <v>25</v>
@@ -3854,7 +3896,7 @@
         <v>26</v>
       </c>
       <c r="J14" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K14" s="3"/>
     </row>
@@ -3863,10 +3905,10 @@
         <v>6</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E15" s="3" t="s">
         <v>49</v>
@@ -3885,10 +3927,10 @@
         <v>7</v>
       </c>
       <c r="C16" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>70</v>
-      </c>
-      <c r="D16" s="3" t="s">
-        <v>71</v>
       </c>
       <c r="E16" s="3" t="s">
         <v>25</v>
@@ -4097,8 +4139,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E127DE-CF36-43F6-B7A4-D647F3EAF3DF}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="C1" workbookViewId="0">
-      <selection activeCell="I15" sqref="I15"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4117,7 +4159,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4131,7 +4173,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4153,7 +4195,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4165,7 +4207,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4210,10 +4252,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -4226,7 +4268,7 @@
       </c>
       <c r="J10" s="3"/>
       <c r="K10" s="3" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="11" spans="1:12" x14ac:dyDescent="0.15">
@@ -4234,10 +4276,10 @@
         <v>2</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>77</v>
+        <v>86</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>79</v>
+        <v>101</v>
       </c>
       <c r="E11" s="3" t="s">
         <v>25</v>
@@ -4258,10 +4300,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="D12" s="3" t="s">
         <v>78</v>
-      </c>
-      <c r="D12" s="3" t="s">
-        <v>81</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -4281,13 +4323,23 @@
       <c r="B13" s="3">
         <v>4</v>
       </c>
-      <c r="C13" s="3"/>
-      <c r="D13" s="3"/>
-      <c r="E13" s="3"/>
-      <c r="F13" s="3"/>
+      <c r="C13" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="3">
+        <v>30</v>
+      </c>
       <c r="G13" s="3"/>
       <c r="H13" s="3"/>
-      <c r="I13" s="3"/>
+      <c r="I13" s="3" t="s">
+        <v>26</v>
+      </c>
       <c r="J13" s="3"/>
       <c r="K13" s="3"/>
     </row>
@@ -4546,7 +4598,7 @@
   <sheetData>
     <row r="1" spans="1:12" ht="18.75" x14ac:dyDescent="0.15">
       <c r="A1" s="4" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="2" spans="1:12" x14ac:dyDescent="0.15">
@@ -4560,7 +4612,7 @@
         <v>2</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:12" x14ac:dyDescent="0.15">
@@ -4582,7 +4634,7 @@
         <v>16</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="D4" s="1" t="s">
         <v>5</v>
@@ -4594,7 +4646,7 @@
         <v>17</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="D5" s="1" t="s">
         <v>6</v>
@@ -4639,10 +4691,10 @@
         <v>1</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="E10" s="3" t="s">
         <v>28</v>
@@ -4687,10 +4739,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="E12" s="3" t="s">
         <v>25</v>
@@ -4704,7 +4756,7 @@
         <v>26</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="K12" s="3"/>
     </row>
@@ -4957,8 +5009,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE66B80-A7DC-49C1-9E32-CAD38135B161}">
   <dimension ref="B2:F2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="H13" sqref="H13"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4975,13 +5027,13 @@
         <v>37</v>
       </c>
       <c r="D2" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E2" t="s">
+        <v>23</v>
+      </c>
+      <c r="F2" t="s">
         <v>24</v>
-      </c>
-      <c r="F2" t="s">
-        <v>86</v>
       </c>
     </row>
   </sheetData>

--- a/doc/04_DB定義書_CurrentDirectory.xlsx
+++ b/doc/04_DB定義書_CurrentDirectory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2512276F-EADF-4EDF-9BB8-F1C54A8AE3B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7714FE3-0E65-4213-841B-BB68C90679D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1185" yWindow="300" windowWidth="15375" windowHeight="10800" firstSheet="2" activeTab="7" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2445" yWindow="120" windowWidth="15375" windowHeight="10800" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -1197,14 +1197,14 @@
     <xdr:from>
       <xdr:col>5</xdr:col>
       <xdr:colOff>742949</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>1028699</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>123825</xdr:rowOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1219,8 +1219,8 @@
       </xdr:nvSpPr>
       <xdr:spPr>
         <a:xfrm>
-          <a:off x="6781799" y="238125"/>
-          <a:ext cx="5743575" cy="981075"/>
+          <a:off x="6781799" y="161925"/>
+          <a:ext cx="5743575" cy="1200150"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1256,13 +1256,35 @@
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>create table TASK( TASKID INT PRIMARY KEY AUTO_INCREMENT NOT NULL, </a:t>
+            <a:t>create table TASK(</a:t>
           </a:r>
         </a:p>
         <a:p>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>USERID INT NOT NULL, REGISTDAY int NOT NULL, COMPDAY CHAR(10) NOT NULL, TASKFLAG VARCHAR(3) default '</a:t>
+            <a:t> TASKID INT PRIMARY KEY AUTO_INCREMENT NOT NULL, </a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>USERID INT NOT NULL, REGISTDAY int NOT NULL, COMPDAY CHAR(10) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>default ''  </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>NOT NULL, TASKFLAG VARCHAR(3) default '</a:t>
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
@@ -1270,7 +1292,23 @@
           </a:r>
           <a:r>
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
-            <a:t>' NOT NULL, DEADLINE CHAR(5), TASKCONTENT VARCHAR(32) NOT NULL</a:t>
+            <a:t>' NOT NULL, DEADLINE CHAR(5) </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>default '' </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>, TASKCONTENT VARCHAR(32) NOT NULL</a:t>
           </a:r>
         </a:p>
         <a:p>
@@ -3672,8 +3710,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0F3DB-914B-4F29-87A6-AF8DC21C9979}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I12" sqref="I12"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4139,8 +4177,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E6E127DE-CF36-43F6-B7A4-D647F3EAF3DF}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+    <sheetView topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="G7" activeCellId="1" sqref="E8 G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5009,7 +5047,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0CE66B80-A7DC-49C1-9E32-CAD38135B161}">
   <dimension ref="B2:F2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>

--- a/doc/04_DB定義書_CurrentDirectory.xlsx
+++ b/doc/04_DB定義書_CurrentDirectory.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\6月配布物\6月配布物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F7714FE3-0E65-4213-841B-BB68C90679D7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE7E538E-819F-457D-8998-C44F2692B6F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2445" yWindow="120" windowWidth="15375" windowHeight="10800" firstSheet="1" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" firstSheet="3" activeTab="8" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="テーブル一覧" sheetId="1" r:id="rId1"/>
@@ -21,6 +21,7 @@
     <sheet name="ACHIEVEMENT" sheetId="7" r:id="rId6"/>
     <sheet name="USERACHIEVEMENT" sheetId="8" state="hidden" r:id="rId7"/>
     <sheet name="テーブルの順番" sheetId="9" r:id="rId8"/>
+    <sheet name="サンプルデータ" sheetId="10" r:id="rId9"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -956,20 +957,6 @@
               <a:ea typeface="+mn-ea"/>
               <a:cs typeface="+mn-cs"/>
             </a:rPr>
-            <a:t>FOREIGN KEY (VOICESELECT) REFERENCES  VOICE (VOICESELECT), </a:t>
-          </a:r>
-        </a:p>
-        <a:p>
-          <a:r>
-            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
-              <a:solidFill>
-                <a:schemeClr val="dk1"/>
-              </a:solidFill>
-              <a:effectLst/>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:rPr>
             <a:t>FOREIGN KEY (BGISELECT) REFERENCES  BGI (BGISELECT))</a:t>
           </a:r>
           <a:endParaRPr lang="ja-JP" altLang="ja-JP">
@@ -1336,8 +1323,8 @@
     <xdr:to>
       <xdr:col>10</xdr:col>
       <xdr:colOff>704849</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>114300</xdr:rowOff>
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
@@ -1353,7 +1340,7 @@
       <xdr:spPr>
         <a:xfrm>
           <a:off x="6457949" y="257175"/>
-          <a:ext cx="5743575" cy="771525"/>
+          <a:ext cx="5743575" cy="952500"/>
         </a:xfrm>
         <a:prstGeom prst="rect">
           <a:avLst/>
@@ -1566,6 +1553,644 @@
             <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
             <a:t>)</a:t>
           </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="2" name="テキスト ボックス 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{87143EC3-5304-0088-80C0-7B5BB8BE3825}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="333375"/>
+          <a:ext cx="4086225" cy="457200"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>insert into bgi (bgititle, bgicontent)  values ('</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>黄色いやつ</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>' , 'defaultBgi/test.png' );</a:t>
+          </a:r>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>19049</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="テキスト ボックス 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{884EDE38-61A1-C21F-904C-141C34F47DDA}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="876299"/>
+          <a:ext cx="4086225" cy="1238251"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>insert into task (userid, registday, taskcontent)  values (1, 20220621, '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>勉強する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>' );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>insert into task (userid, registday, taskcontent)  values (1, 20220618, '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>旅に出る</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>' );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>9525</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>666750</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="4" name="テキスト ボックス 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AF4503F7-A8B2-3D10-AF0E-F813F812A325}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1381125" y="2409824"/>
+          <a:ext cx="4086225" cy="2466976"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>insert into achievement (achieveid, achievetitle, condition, achievecontent)  values (1 , '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初めてのタスク完了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>初めてタスクを完了する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>タスク初完了おめでとう！</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+            <a:t>' );</a:t>
+          </a:r>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>insert into achievement (achieveid, achievetitle, condition, achievecontent)  values (5 ,  '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>そこそこタスク完了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>５</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>個タスクを完了する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' , '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>そこそこがんばったね</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>');</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100"/>
+        </a:p>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>insert into achievement (achieveid, achievetitle, condition, achievecontent)  values (10 , '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>たくさんタスク完了</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>１０個</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>タスクを完了する</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>', '</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>たくさんがんばったね</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>' );</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
+          <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>190500</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>38100</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>14</xdr:row>
+      <xdr:rowOff>47625</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="5" name="テキスト ボックス 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1EAA90BD-AF32-7F06-E317-3554DB45FA7F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvSpPr txBox="1"/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="5676900" y="2095500"/>
+          <a:ext cx="3267075" cy="352425"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+        <a:solidFill>
+          <a:schemeClr val="lt1"/>
+        </a:solidFill>
+        <a:ln w="9525" cmpd="sng">
+          <a:solidFill>
+            <a:schemeClr val="lt1">
+              <a:shade val="50000"/>
+            </a:schemeClr>
+          </a:solidFill>
+        </a:ln>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:fillRef>
+        <a:effectRef idx="0">
+          <a:scrgbClr r="0" g="0" b="0"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="dk1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr vertOverflow="clip" horzOverflow="clip" wrap="square" rtlCol="0" anchor="t"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr marL="0" marR="0" lvl="0" indent="0" defTabSz="914400" eaLnBrk="1" fontAlgn="auto" latinLnBrk="0" hangingPunct="1">
+            <a:lnSpc>
+              <a:spcPct val="100000"/>
+            </a:lnSpc>
+            <a:spcBef>
+              <a:spcPts val="0"/>
+            </a:spcBef>
+            <a:spcAft>
+              <a:spcPts val="0"/>
+            </a:spcAft>
+            <a:buClrTx/>
+            <a:buSzTx/>
+            <a:buFontTx/>
+            <a:buNone/>
+            <a:tabLst/>
+            <a:defRPr/>
+          </a:pPr>
+          <a:r>
+            <a:rPr kumimoji="1" lang="en-US" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>※</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
+            <a:t>どの項目も</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr kumimoji="1" lang="ja-JP" altLang="ja-JP" sz="1100">
+              <a:solidFill>
+                <a:schemeClr val="dk1"/>
+              </a:solidFill>
+              <a:effectLst/>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:rPr>
+            <a:t>好きに作っていただいて大丈夫です。</a:t>
+          </a:r>
+          <a:endParaRPr lang="ja-JP" altLang="ja-JP">
+            <a:effectLst/>
+          </a:endParaRPr>
+        </a:p>
+        <a:p>
           <a:endParaRPr kumimoji="1" lang="ja-JP" altLang="en-US" sz="1100"/>
         </a:p>
       </xdr:txBody>
@@ -3710,7 +4335,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABD0F3DB-914B-4F29-87A6-AF8DC21C9979}">
   <dimension ref="A1:L29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView topLeftCell="D1" workbookViewId="0">
       <selection activeCell="K7" sqref="K7"/>
     </sheetView>
   </sheetViews>
@@ -5078,4 +5703,20 @@
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D31A3719-56E5-4071-83E9-781D3C379605}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="L19" sqref="L19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData/>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
 </file>